--- a/Model_files/data.xlsx
+++ b/Model_files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мишаня\Desktop\РАН ИнЭИ\Model_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D090030E-E72D-4FB3-9BFB-4E40C73A2801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEBF03A-12DE-4964-BDA6-E303EC1D20D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
   <si>
     <t>ПТУ</t>
   </si>
@@ -161,6 +161,42 @@
   </si>
   <si>
     <t>p_reserves_penalty</t>
+  </si>
+  <si>
+    <t>Константы</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
 </sst>
 </file>
@@ -218,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -287,46 +323,26 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -340,16 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -357,9 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -371,38 +375,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -685,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,57 +709,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1000</v>
       </c>
     </row>
@@ -759,10 +778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4DEEC3-A5A5-4B23-BCEA-B648A05EA861}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,13 +790,17 @@
     <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -787,8 +810,14 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -798,8 +827,14 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -809,8 +844,14 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -820,8 +861,14 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -831,6 +878,355 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -842,7 +1238,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,34 +1257,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1048,6 +1444,39 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1055,6 +1484,39 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1062,6 +1524,39 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1069,6 +1564,39 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1104,273 +1632,2075 @@
       <c r="R13" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC143287-D762-4012-A135-9AB34FE41D17}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5">
+        <v>11</v>
+      </c>
+      <c r="P1" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5">
+        <v>15</v>
+      </c>
+      <c r="T1" s="5">
+        <v>16</v>
+      </c>
+      <c r="U1" s="5">
         <v>17</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="V1" s="5">
+        <v>18</v>
+      </c>
+      <c r="W1" s="5">
+        <v>19</v>
+      </c>
+      <c r="X1" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="22" t="s">
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>0.3</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2">
+        <v>0.3</v>
+      </c>
+      <c r="N2">
+        <v>0.3</v>
+      </c>
+      <c r="O2">
+        <v>0.3</v>
+      </c>
+      <c r="P2">
+        <v>0.3</v>
+      </c>
+      <c r="Q2">
+        <v>0.3</v>
+      </c>
+      <c r="R2">
+        <v>0.3</v>
+      </c>
+      <c r="S2">
+        <v>0.3</v>
+      </c>
+      <c r="T2">
+        <v>0.3</v>
+      </c>
+      <c r="U2">
+        <v>0.3</v>
+      </c>
+      <c r="V2">
+        <v>0.3</v>
+      </c>
+      <c r="W2">
+        <v>0.3</v>
+      </c>
+      <c r="X2">
+        <v>0.3</v>
+      </c>
+      <c r="Y2">
+        <v>0.3</v>
+      </c>
+      <c r="Z2">
+        <v>0.3</v>
+      </c>
+      <c r="AA2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3">
+        <v>1.7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3">
+        <v>2.7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3">
+        <v>3.7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3">
+        <v>4.7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3">
+        <v>5.7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3">
+        <v>6.7</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3">
+        <v>7.7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="23" t="s">
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+      <c r="I5">
+        <v>0.3</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <v>0.3</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>0.3</v>
+      </c>
+      <c r="N5">
+        <v>0.3</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+      <c r="P5">
+        <v>0.3</v>
+      </c>
+      <c r="Q5">
+        <v>0.3</v>
+      </c>
+      <c r="R5">
+        <v>0.3</v>
+      </c>
+      <c r="S5">
+        <v>0.3</v>
+      </c>
+      <c r="T5">
+        <v>0.3</v>
+      </c>
+      <c r="U5">
+        <v>0.3</v>
+      </c>
+      <c r="V5">
+        <v>0.3</v>
+      </c>
+      <c r="W5">
+        <v>0.3</v>
+      </c>
+      <c r="X5">
+        <v>0.3</v>
+      </c>
+      <c r="Y5">
+        <v>0.3</v>
+      </c>
+      <c r="Z5">
+        <v>0.3</v>
+      </c>
+      <c r="AA5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="23" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <v>0.3</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>0.3</v>
+      </c>
+      <c r="N8">
+        <v>0.3</v>
+      </c>
+      <c r="O8">
+        <v>0.3</v>
+      </c>
+      <c r="P8">
+        <v>0.3</v>
+      </c>
+      <c r="Q8">
+        <v>0.3</v>
+      </c>
+      <c r="R8">
+        <v>0.3</v>
+      </c>
+      <c r="S8">
+        <v>0.3</v>
+      </c>
+      <c r="T8">
+        <v>0.3</v>
+      </c>
+      <c r="U8">
+        <v>0.3</v>
+      </c>
+      <c r="V8">
+        <v>0.3</v>
+      </c>
+      <c r="W8">
+        <v>0.3</v>
+      </c>
+      <c r="X8">
+        <v>0.3</v>
+      </c>
+      <c r="Y8">
+        <v>0.3</v>
+      </c>
+      <c r="Z8">
+        <v>0.3</v>
+      </c>
+      <c r="AA8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+      <c r="L11">
+        <v>0.3</v>
+      </c>
+      <c r="M11">
+        <v>0.3</v>
+      </c>
+      <c r="N11">
+        <v>0.3</v>
+      </c>
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="P11">
+        <v>0.3</v>
+      </c>
+      <c r="Q11">
+        <v>0.3</v>
+      </c>
+      <c r="R11">
+        <v>0.3</v>
+      </c>
+      <c r="S11">
+        <v>0.3</v>
+      </c>
+      <c r="T11">
+        <v>0.3</v>
+      </c>
+      <c r="U11">
+        <v>0.3</v>
+      </c>
+      <c r="V11">
+        <v>0.3</v>
+      </c>
+      <c r="W11">
+        <v>0.3</v>
+      </c>
+      <c r="X11">
+        <v>0.3</v>
+      </c>
+      <c r="Y11">
+        <v>0.3</v>
+      </c>
+      <c r="Z11">
+        <v>0.3</v>
+      </c>
+      <c r="AA11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0.3</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>0.3</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <v>0.3</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="M14">
+        <v>0.3</v>
+      </c>
+      <c r="N14">
+        <v>0.3</v>
+      </c>
+      <c r="O14">
+        <v>0.3</v>
+      </c>
+      <c r="P14">
+        <v>0.3</v>
+      </c>
+      <c r="Q14">
+        <v>0.3</v>
+      </c>
+      <c r="R14">
+        <v>0.3</v>
+      </c>
+      <c r="S14">
+        <v>0.3</v>
+      </c>
+      <c r="T14">
+        <v>0.3</v>
+      </c>
+      <c r="U14">
+        <v>0.3</v>
+      </c>
+      <c r="V14">
+        <v>0.3</v>
+      </c>
+      <c r="W14">
+        <v>0.3</v>
+      </c>
+      <c r="X14">
+        <v>0.3</v>
+      </c>
+      <c r="Y14">
+        <v>0.3</v>
+      </c>
+      <c r="Z14">
+        <v>0.3</v>
+      </c>
+      <c r="AA14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.6</v>
+      </c>
+      <c r="I15">
+        <v>0.7</v>
+      </c>
+      <c r="J15">
+        <v>0.8</v>
+      </c>
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.2</v>
+      </c>
+      <c r="O15">
+        <v>1.3</v>
+      </c>
+      <c r="P15">
+        <v>1.4</v>
+      </c>
+      <c r="Q15">
+        <v>1.5</v>
+      </c>
+      <c r="R15">
+        <v>1.6</v>
+      </c>
+      <c r="S15">
+        <v>1.7</v>
+      </c>
+      <c r="T15">
+        <v>1.8</v>
+      </c>
+      <c r="U15">
+        <v>1.9</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>2.1</v>
+      </c>
+      <c r="X15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z15">
+        <v>2.4</v>
+      </c>
+      <c r="AA15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="D17">
+        <v>0.3</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17">
+        <v>0.3</v>
+      </c>
+      <c r="H17">
+        <v>0.3</v>
+      </c>
+      <c r="I17">
+        <v>0.3</v>
+      </c>
+      <c r="J17">
+        <v>0.3</v>
+      </c>
+      <c r="K17">
+        <v>0.3</v>
+      </c>
+      <c r="L17">
+        <v>0.3</v>
+      </c>
+      <c r="M17">
+        <v>0.3</v>
+      </c>
+      <c r="N17">
+        <v>0.3</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+      <c r="P17">
+        <v>0.3</v>
+      </c>
+      <c r="Q17">
+        <v>0.3</v>
+      </c>
+      <c r="R17">
+        <v>0.3</v>
+      </c>
+      <c r="S17">
+        <v>0.3</v>
+      </c>
+      <c r="T17">
+        <v>0.3</v>
+      </c>
+      <c r="U17">
+        <v>0.3</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
+        <v>0.3</v>
+      </c>
+      <c r="X17">
+        <v>0.3</v>
+      </c>
+      <c r="Y17">
+        <v>0.3</v>
+      </c>
+      <c r="Z17">
+        <v>0.3</v>
+      </c>
+      <c r="AA17">
+        <v>0.3</v>
+      </c>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="18"/>
+    </row>
+    <row r="18" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+    </row>
+    <row r="19" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.3</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0.3</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.3</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.3</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.3</v>
-      </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.3</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0.3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0.3</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.3</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0.3</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0.3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0.3</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="7"/>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20">
+        <v>0.3</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <v>0.3</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20">
+        <v>0.3</v>
+      </c>
+      <c r="K20">
+        <v>0.3</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>0.3</v>
+      </c>
+      <c r="N20">
+        <v>0.3</v>
+      </c>
+      <c r="O20">
+        <v>0.3</v>
+      </c>
+      <c r="P20">
+        <v>0.3</v>
+      </c>
+      <c r="Q20">
+        <v>0.3</v>
+      </c>
+      <c r="R20">
+        <v>0.3</v>
+      </c>
+      <c r="S20">
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>0.3</v>
+      </c>
+      <c r="U20">
+        <v>0.3</v>
+      </c>
+      <c r="V20">
+        <v>0.3</v>
+      </c>
+      <c r="W20">
+        <v>0.3</v>
+      </c>
+      <c r="X20">
+        <v>0.3</v>
+      </c>
+      <c r="Y20">
+        <v>0.3</v>
+      </c>
+      <c r="Z20">
+        <v>0.3</v>
+      </c>
+      <c r="AA20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>0.3</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="F23">
+        <v>0.3</v>
+      </c>
+      <c r="G23">
+        <v>0.3</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="I23">
+        <v>0.3</v>
+      </c>
+      <c r="J23">
+        <v>0.3</v>
+      </c>
+      <c r="K23">
+        <v>0.3</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+      <c r="M23">
+        <v>0.3</v>
+      </c>
+      <c r="N23">
+        <v>0.3</v>
+      </c>
+      <c r="O23">
+        <v>0.3</v>
+      </c>
+      <c r="P23">
+        <v>0.3</v>
+      </c>
+      <c r="Q23">
+        <v>0.3</v>
+      </c>
+      <c r="R23">
+        <v>0.3</v>
+      </c>
+      <c r="S23">
+        <v>0.3</v>
+      </c>
+      <c r="T23">
+        <v>0.3</v>
+      </c>
+      <c r="U23">
+        <v>0.3</v>
+      </c>
+      <c r="V23">
+        <v>0.3</v>
+      </c>
+      <c r="W23">
+        <v>0.3</v>
+      </c>
+      <c r="X23">
+        <v>0.3</v>
+      </c>
+      <c r="Y23">
+        <v>0.3</v>
+      </c>
+      <c r="Z23">
+        <v>0.3</v>
+      </c>
+      <c r="AA23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1383,7 +3713,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,13 +3725,13 @@
       <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B2">
@@ -1412,104 +3742,460 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E647F1-1229-4CFA-AF7A-799F90C6E5A1}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1">
         <v>17</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="1">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
+      <c r="D3">
+        <v>1050</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>995</v>
+      </c>
+      <c r="I3">
+        <v>990</v>
+      </c>
+      <c r="J3">
+        <v>985</v>
+      </c>
+      <c r="K3">
+        <v>980</v>
+      </c>
+      <c r="L3">
+        <v>975</v>
+      </c>
+      <c r="M3">
+        <v>970</v>
+      </c>
+      <c r="N3">
+        <v>965</v>
+      </c>
+      <c r="O3">
+        <v>960</v>
+      </c>
+      <c r="P3">
+        <v>955</v>
+      </c>
+      <c r="Q3">
+        <v>950</v>
+      </c>
+      <c r="R3">
+        <v>945</v>
+      </c>
+      <c r="S3">
+        <v>940</v>
+      </c>
+      <c r="T3">
+        <v>935</v>
+      </c>
+      <c r="U3">
+        <v>930</v>
+      </c>
+      <c r="V3">
+        <v>925</v>
+      </c>
+      <c r="W3">
+        <v>920</v>
+      </c>
+      <c r="X3">
+        <v>915</v>
+      </c>
+      <c r="Y3">
+        <v>910</v>
+      </c>
+      <c r="Z3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>1050</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,7 +4207,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1534,10 +4220,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1546,7 +4232,7 @@
       <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1577,25 +4263,47 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="14"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+      <c r="B14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,84 +4312,454 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBEC557-D5F2-4F8C-909F-C3C4F5D1A2D1}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1">
         <v>17</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="V1" s="1">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>0.5</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="V2">
+        <v>0.5</v>
+      </c>
+      <c r="W2">
+        <v>0.5</v>
+      </c>
+      <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2">
+        <v>0.5</v>
+      </c>
+      <c r="Z2">
+        <v>0.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="13" t="s">
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>0.5</v>
+      </c>
+      <c r="Y3">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.5</v>
+      </c>
+      <c r="AA3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
       <c r="D4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.5</v>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+      <c r="Y4">
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
+        <v>0.5</v>
+      </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <v>0.5</v>
+      </c>
+      <c r="Y5">
+        <v>0.5</v>
+      </c>
+      <c r="Z5">
+        <v>0.5</v>
+      </c>
+      <c r="AA5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
